--- a/design/JuiceZombie/商店.xlsx
+++ b/design/JuiceZombie/商店.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitProject\LootingZombie\design\LootingZombie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitProject\JuiceZombies\design\JuiceZombie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0E88A0-71A6-43E4-8810-0948A42D3C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDCEA34-18F2-48F5-AD67-EAE77E9C58F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="月卡" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>月卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,14 @@
   </si>
   <si>
     <t>月卡剩余时间读表 在登陆时拉取数据显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用购买逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果当前可以购买 将按钮颜色标为标准购买色1F285B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1031,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E41" sqref="A41:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1120,6 +1128,16 @@
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
